--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value890.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value890.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.412599972330684</v>
+        <v>3.253638744354248</v>
       </c>
       <c r="B1">
-        <v>2.404609364048762</v>
+        <v>2.351215124130249</v>
       </c>
       <c r="C1">
-        <v>2.859931435995266</v>
+        <v>1.738563060760498</v>
       </c>
       <c r="D1">
-        <v>3.287528967784458</v>
+        <v>1.620709657669067</v>
       </c>
       <c r="E1">
-        <v>1.751980362529801</v>
+        <v>1.569837093353271</v>
       </c>
     </row>
   </sheetData>
